--- a/src/main/resources/case/test_case_03.xlsx
+++ b/src/main/resources/case/test_case_03.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16584" windowHeight="8184" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例的详细数据" sheetId="1" r:id="rId1"/>
     <sheet name="接口的基本信息" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -164,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -187,22 +186,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,107 +313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,43 +330,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,25 +480,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,103 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,30 +539,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -575,30 +550,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,6 +573,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -630,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,16 +641,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,129 +659,126 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1135,213 +1131,213 @@
   <sheetPr/>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.65740740740741" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.1111111111111" style="3" customWidth="1"/>
-    <col min="3" max="3" width="51.3333333333333" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9.65740740740741" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1357,8 +1353,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1368,58 +1364,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1433,21 +1429,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>